--- a/Output Tables/VTAllResults.xlsx
+++ b/Output Tables/VTAllResults.xlsx
@@ -13,7 +13,208 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="134">
+  <si>
+    <t>compName</t>
+  </si>
+  <si>
+    <t>Rochester 2019</t>
+  </si>
+  <si>
+    <t>California 2019</t>
+  </si>
+  <si>
+    <t>Tennessee 2019</t>
+  </si>
+  <si>
+    <t>Oregon 2018</t>
+  </si>
+  <si>
+    <t>Kansas 2018</t>
+  </si>
+  <si>
+    <t>Maryland 2018</t>
+  </si>
+  <si>
+    <t>California 2017</t>
+  </si>
+  <si>
+    <t>Rochester 2016</t>
+  </si>
+  <si>
+    <t>Tennessee 2016</t>
+  </si>
+  <si>
+    <t>Maryland 2015</t>
+  </si>
+  <si>
+    <t>Auburn 2015</t>
+  </si>
+  <si>
+    <t>Illinois 2014</t>
+  </si>
+  <si>
+    <t>UTEP 2014</t>
+  </si>
+  <si>
+    <t>Tennessee 2013</t>
+  </si>
+  <si>
+    <t>Auburn 2012</t>
+  </si>
+  <si>
+    <t>Birmingham 2011</t>
+  </si>
+  <si>
+    <t>Carolina 2010</t>
+  </si>
+  <si>
+    <t>Alabama 2009</t>
+  </si>
+  <si>
+    <t>Tennessee 2008</t>
+  </si>
+  <si>
+    <t>Montreal 2008</t>
+  </si>
+  <si>
+    <t>UCF 2007</t>
+  </si>
+  <si>
+    <t>overallRank</t>
+  </si>
+  <si>
+    <t>carNumber</t>
+  </si>
+  <si>
+    <t>universityName</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>teamName</t>
+  </si>
+  <si>
+    <t>VT Baja</t>
+  </si>
+  <si>
+    <t>Virginia Tech Baja</t>
+  </si>
+  <si>
+    <t>VT Baja</t>
+  </si>
+  <si>
+    <t>VT BAJA</t>
+  </si>
+  <si>
+    <t>VT Baja</t>
+  </si>
+  <si>
+    <t>VT Baja SAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VT Baja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia Tech Baja SAE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia Tech Baja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VT Hokies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia Tech </t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>overallScore</t>
+  </si>
+  <si>
+    <t>overallDynamic</t>
+  </si>
+  <si>
+    <t>overallStatic</t>
+  </si>
+  <si>
+    <t>costScore</t>
+  </si>
+  <si>
+    <t>designScore</t>
+  </si>
+  <si>
+    <t>salesScore</t>
+  </si>
+  <si>
+    <t>techScore</t>
+  </si>
+  <si>
+    <t>accelScore</t>
+  </si>
+  <si>
+    <t>landManeuScore</t>
+  </si>
+  <si>
+    <t>rockCrawlScore</t>
+  </si>
+  <si>
+    <t>mudBogScore</t>
+  </si>
+  <si>
+    <t>hillClimbScore</t>
+  </si>
+  <si>
+    <t>sledPullScore</t>
+  </si>
+  <si>
+    <t>susTracScore</t>
+  </si>
+  <si>
+    <t>waterManeuScore</t>
+  </si>
+  <si>
+    <t>enduroScore</t>
+  </si>
+  <si>
+    <t>techPenalty</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>registered</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>techPassed</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>PassedTechOnTime</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
   <si>
     <t>compName</t>
   </si>
@@ -234,7 +435,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -243,13 +444,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -262,117 +465,117 @@
   <dimension ref="A1:Z23"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="true"/>
-    <col min="2" max="2" width="11.5703125" customWidth="true"/>
-    <col min="3" max="3" width="11" customWidth="true"/>
-    <col min="4" max="4" width="15.28515625" customWidth="true"/>
-    <col min="5" max="5" width="20.85546875" customWidth="true"/>
-    <col min="6" max="6" width="12.140625" customWidth="true"/>
-    <col min="7" max="7" width="14.85546875" customWidth="true"/>
-    <col min="8" max="8" width="12.140625" customWidth="true"/>
-    <col min="9" max="9" width="9.5703125" customWidth="true"/>
-    <col min="10" max="10" width="11.85546875" customWidth="true"/>
-    <col min="11" max="11" width="10.42578125" customWidth="true"/>
-    <col min="12" max="12" width="9.85546875" customWidth="true"/>
-    <col min="13" max="13" width="10.42578125" customWidth="true"/>
-    <col min="14" max="14" width="16" customWidth="true"/>
-    <col min="15" max="15" width="14.7109375" customWidth="true"/>
-    <col min="16" max="16" width="13.28515625" customWidth="true"/>
-    <col min="17" max="17" width="14" customWidth="true"/>
-    <col min="18" max="18" width="13.140625" customWidth="true"/>
-    <col min="19" max="19" width="12.42578125" customWidth="true"/>
-    <col min="20" max="20" width="17.28515625" customWidth="true"/>
-    <col min="21" max="21" width="12.42578125" customWidth="true"/>
-    <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="7.85546875" customWidth="true"/>
-    <col min="24" max="24" width="10.28515625" customWidth="true"/>
-    <col min="25" max="25" width="11.140625" customWidth="true"/>
-    <col min="26" max="26" width="18.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.26953125" customWidth="true"/>
+    <col min="2" max="2" width="10.7109375" customWidth="true"/>
+    <col min="3" max="3" width="10.26953125" customWidth="true"/>
+    <col min="4" max="4" width="13.82421875" customWidth="true"/>
+    <col min="5" max="5" width="19.37890625" customWidth="true"/>
+    <col min="6" max="6" width="11.26953125" customWidth="true"/>
+    <col min="7" max="7" width="13.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.26953125" customWidth="true"/>
+    <col min="9" max="9" width="9.15625" customWidth="true"/>
+    <col min="10" max="10" width="10.82421875" customWidth="true"/>
+    <col min="11" max="11" width="9.7109375" customWidth="true"/>
+    <col min="12" max="12" width="9.26953125" customWidth="true"/>
+    <col min="13" max="13" width="9.93359375" customWidth="true"/>
+    <col min="14" max="14" width="14.82421875" customWidth="true"/>
+    <col min="15" max="15" width="13.93359375" customWidth="true"/>
+    <col min="16" max="16" width="12.37890625" customWidth="true"/>
+    <col min="17" max="17" width="12.6015625" customWidth="true"/>
+    <col min="18" max="18" width="11.82421875" customWidth="true"/>
+    <col min="19" max="19" width="11.82421875" customWidth="true"/>
+    <col min="20" max="20" width="16.15625" customWidth="true"/>
+    <col min="21" max="21" width="11.48828125" customWidth="true"/>
+    <col min="22" max="22" width="10.7109375" customWidth="true"/>
+    <col min="23" max="23" width="7.15625" customWidth="true"/>
+    <col min="24" max="24" width="9.26953125" customWidth="true"/>
+    <col min="25" max="25" width="10.26953125" customWidth="true"/>
+    <col min="26" max="26" width="16.93359375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0">
         <v>46</v>
@@ -381,10 +584,10 @@
         <v>42</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="F2" s="0">
         <v>486.62</v>
@@ -441,18 +644,18 @@
         <v>0</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0">
         <v>39</v>
@@ -461,10 +664,10 @@
         <v>85</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="F3" s="0">
         <v>566.59000000000003</v>
@@ -521,18 +724,18 @@
         <v>0</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0">
         <v>37</v>
@@ -541,10 +744,10 @@
         <v>87</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="F4" s="0">
         <v>453.54000000000002</v>
@@ -601,18 +804,18 @@
         <v>0</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0">
         <v>24</v>
@@ -621,10 +824,10 @@
         <v>51</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="F5" s="0">
         <v>619.20000000000005</v>
@@ -681,18 +884,18 @@
         <v>0</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0">
         <v>21</v>
@@ -701,10 +904,10 @@
         <v>27</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="F6" s="0">
         <v>618.88</v>
@@ -761,18 +964,18 @@
         <v>0</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0">
         <v>40</v>
@@ -781,10 +984,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="F7" s="0">
         <v>435.70999999999998</v>
@@ -841,18 +1044,18 @@
         <v>0</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0">
         <v>49</v>
@@ -861,10 +1064,10 @@
         <v>45</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="F8" s="0">
         <v>411.77999999999997</v>
@@ -921,18 +1124,18 @@
         <v>0</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0">
         <v>30</v>
@@ -941,10 +1144,10 @@
         <v>103</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="F9" s="0">
         <v>625.84000000000003</v>
@@ -1001,18 +1204,18 @@
         <v>0</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0">
         <v>58</v>
@@ -1021,10 +1224,10 @@
         <v>63</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="F10" s="0">
         <v>354.32999999999998</v>
@@ -1081,18 +1284,18 @@
         <v>0</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0">
         <v>28</v>
@@ -1101,10 +1304,10 @@
         <v>36</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="F11" s="0">
         <v>658.76999999999998</v>
@@ -1160,13 +1363,13 @@
       <c r="W11" s="0"/>
       <c r="X11" s="0"/>
       <c r="Y11" s="0" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="Z11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0">
         <v>40</v>
@@ -1175,10 +1378,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="F12" s="0">
         <v>496.02999999999997</v>
@@ -1234,13 +1437,13 @@
       <c r="W12" s="0"/>
       <c r="X12" s="0"/>
       <c r="Y12" s="0" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="Z12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0">
         <v>0</v>
@@ -1249,10 +1452,10 @@
         <v>63</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="F13" s="0">
         <v>11</v>
@@ -1307,14 +1510,14 @@
       </c>
       <c r="W13" s="0"/>
       <c r="X13" s="0" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="Y13" s="0"/>
       <c r="Z13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0">
         <v>11</v>
@@ -1323,10 +1526,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="F14" s="0">
         <v>746.78999999999996</v>
@@ -1382,13 +1585,13 @@
       <c r="W14" s="0"/>
       <c r="X14" s="0"/>
       <c r="Y14" s="0" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="Z14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0">
         <v>16</v>
@@ -1397,10 +1600,10 @@
         <v>38</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="F15" s="0">
         <v>674.45000000000005</v>
@@ -1456,13 +1659,13 @@
       <c r="W15" s="0"/>
       <c r="X15" s="0"/>
       <c r="Y15" s="0" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="Z15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0">
         <v>16</v>
@@ -1471,10 +1674,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F16" s="0">
         <v>674.63999999999999</v>
@@ -1530,13 +1733,13 @@
       <c r="W16" s="0"/>
       <c r="X16" s="0"/>
       <c r="Y16" s="0" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="Z16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0">
         <v>9</v>
@@ -1545,10 +1748,10 @@
         <v>47</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="F17" s="0">
         <v>724.25</v>
@@ -1604,13 +1807,13 @@
       <c r="W17" s="0"/>
       <c r="X17" s="0"/>
       <c r="Y17" s="0" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="Z17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0">
         <v>10</v>
@@ -1619,10 +1822,10 @@
         <v>76</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="F18" s="0">
         <v>808.53999999999996</v>
@@ -1678,13 +1881,13 @@
       <c r="W18" s="0"/>
       <c r="X18" s="0"/>
       <c r="Y18" s="0" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="Z18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0">
         <v>13</v>
@@ -1693,10 +1896,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="F19" s="0">
         <v>738.25999999999999</v>
@@ -1752,13 +1955,13 @@
       <c r="W19" s="0"/>
       <c r="X19" s="0"/>
       <c r="Y19" s="0" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="Z19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0">
         <v>28</v>
@@ -1767,10 +1970,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="F20" s="0">
         <v>476.95999999999998</v>
@@ -1820,7 +2023,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B21" s="0">
         <v>3</v>
@@ -1829,10 +2032,10 @@
         <v>22</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="F21" s="0">
         <v>842.46000000000004</v>
@@ -1892,7 +2095,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B22" s="0">
         <v>22</v>
@@ -1901,10 +2104,10 @@
         <v>120</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="F22" s="0">
         <v>663.22000000000003</v>
@@ -1964,7 +2167,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B23" s="0">
         <v>19</v>
@@ -1973,10 +2176,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="F23" s="0">
         <v>599.86000000000001</v>
